--- a/final_data_pipeline/output/311314_elec_options.xlsx
+++ b/final_data_pipeline/output/311314_elec_options.xlsx
@@ -822,7 +822,7 @@
         <v>78</v>
       </c>
       <c r="AD2">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE2">
         <v>8000</v>
@@ -911,7 +911,7 @@
         <v>78</v>
       </c>
       <c r="AD3">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE3">
         <v>8000</v>
@@ -1006,7 +1006,7 @@
         <v>78</v>
       </c>
       <c r="AD4">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE4">
         <v>8000</v>
@@ -1101,7 +1101,7 @@
         <v>78</v>
       </c>
       <c r="AD5">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE5">
         <v>8000</v>
@@ -1190,7 +1190,7 @@
         <v>78</v>
       </c>
       <c r="AD6">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE6">
         <v>8000</v>
@@ -1279,7 +1279,7 @@
         <v>78</v>
       </c>
       <c r="AD7">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE7">
         <v>8000</v>
@@ -1368,7 +1368,7 @@
         <v>78</v>
       </c>
       <c r="AD8">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE8">
         <v>8000</v>
@@ -1463,7 +1463,7 @@
         <v>78</v>
       </c>
       <c r="AD9">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE9">
         <v>8000</v>
@@ -1552,7 +1552,7 @@
         <v>78</v>
       </c>
       <c r="AD10">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE10">
         <v>8000</v>
@@ -1647,7 +1647,7 @@
         <v>78</v>
       </c>
       <c r="AD11">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE11">
         <v>8000</v>
@@ -1736,7 +1736,7 @@
         <v>78</v>
       </c>
       <c r="AD12">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE12">
         <v>8000</v>
@@ -1825,7 +1825,7 @@
         <v>78</v>
       </c>
       <c r="AD13">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE13">
         <v>8000</v>
@@ -1914,7 +1914,7 @@
         <v>78</v>
       </c>
       <c r="AD14">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE14">
         <v>8000</v>
@@ -2003,7 +2003,7 @@
         <v>78</v>
       </c>
       <c r="AD15">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE15">
         <v>8000</v>
@@ -2098,7 +2098,7 @@
         <v>78</v>
       </c>
       <c r="AD16">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE16">
         <v>8000</v>
@@ -2193,7 +2193,7 @@
         <v>78</v>
       </c>
       <c r="AD17">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE17">
         <v>8000</v>
@@ -2282,7 +2282,7 @@
         <v>78</v>
       </c>
       <c r="AD18">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE18">
         <v>8000</v>
@@ -2371,7 +2371,7 @@
         <v>78</v>
       </c>
       <c r="AD19">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE19">
         <v>8000</v>
@@ -2460,7 +2460,7 @@
         <v>78</v>
       </c>
       <c r="AD20">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE20">
         <v>8000</v>
@@ -2555,7 +2555,7 @@
         <v>78</v>
       </c>
       <c r="AD21">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE21">
         <v>8000</v>
@@ -2650,7 +2650,7 @@
         <v>78</v>
       </c>
       <c r="AD22">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE22">
         <v>8000</v>
@@ -2739,7 +2739,7 @@
         <v>78</v>
       </c>
       <c r="AD23">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE23">
         <v>8000</v>
@@ -2828,7 +2828,7 @@
         <v>78</v>
       </c>
       <c r="AD24">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE24">
         <v>8000</v>
@@ -2917,7 +2917,7 @@
         <v>78</v>
       </c>
       <c r="AD25">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE25">
         <v>8000</v>
@@ -3006,7 +3006,7 @@
         <v>78</v>
       </c>
       <c r="AD26">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AE26">
         <v>8000</v>
@@ -3095,7 +3095,7 @@
         <v>78</v>
       </c>
       <c r="AD27">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AE27">
         <v>8000</v>
@@ -3184,7 +3184,7 @@
         <v>78</v>
       </c>
       <c r="AD28">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AE28">
         <v>8000</v>
@@ -3273,7 +3273,7 @@
         <v>78</v>
       </c>
       <c r="AD29">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AE29">
         <v>8000</v>
@@ -3362,7 +3362,7 @@
         <v>78</v>
       </c>
       <c r="AD30">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AE30">
         <v>8000</v>
@@ -3451,7 +3451,7 @@
         <v>78</v>
       </c>
       <c r="AD31">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AE31">
         <v>8000</v>
@@ -3540,7 +3540,7 @@
         <v>78</v>
       </c>
       <c r="AD32">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AE32">
         <v>8000</v>
@@ -3629,7 +3629,7 @@
         <v>78</v>
       </c>
       <c r="AD33">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AE33">
         <v>8000</v>
@@ -3718,7 +3718,7 @@
         <v>78</v>
       </c>
       <c r="AD34">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AE34">
         <v>8000</v>
@@ -3807,7 +3807,7 @@
         <v>78</v>
       </c>
       <c r="AD35">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AE35">
         <v>8000</v>
@@ -3896,7 +3896,7 @@
         <v>78</v>
       </c>
       <c r="AD36">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AE36">
         <v>8000</v>
@@ -3985,7 +3985,7 @@
         <v>78</v>
       </c>
       <c r="AD37">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AE37">
         <v>8000</v>
@@ -4074,7 +4074,7 @@
         <v>78</v>
       </c>
       <c r="AD38">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AE38">
         <v>8000</v>
@@ -4163,7 +4163,7 @@
         <v>78</v>
       </c>
       <c r="AD39">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AE39">
         <v>8000</v>
@@ -4252,7 +4252,7 @@
         <v>78</v>
       </c>
       <c r="AD40">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AE40">
         <v>8000</v>
@@ -4341,7 +4341,7 @@
         <v>78</v>
       </c>
       <c r="AD41">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AE41">
         <v>8000</v>
@@ -4436,7 +4436,7 @@
         <v>78</v>
       </c>
       <c r="AD42">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE42">
         <v>8000</v>
@@ -4525,7 +4525,7 @@
         <v>78</v>
       </c>
       <c r="AD43">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE43">
         <v>8000</v>
@@ -4614,7 +4614,7 @@
         <v>78</v>
       </c>
       <c r="AD44">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE44">
         <v>8000</v>
@@ -4709,7 +4709,7 @@
         <v>78</v>
       </c>
       <c r="AD45">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE45">
         <v>8000</v>
@@ -4798,7 +4798,7 @@
         <v>78</v>
       </c>
       <c r="AD46">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE46">
         <v>8000</v>
@@ -4893,7 +4893,7 @@
         <v>78</v>
       </c>
       <c r="AD47">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE47">
         <v>8000</v>
@@ -4988,7 +4988,7 @@
         <v>78</v>
       </c>
       <c r="AD48">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE48">
         <v>8000</v>
@@ -5083,7 +5083,7 @@
         <v>78</v>
       </c>
       <c r="AD49">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE49">
         <v>8000</v>
@@ -5178,7 +5178,7 @@
         <v>78</v>
       </c>
       <c r="AD50">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE50">
         <v>8000</v>
@@ -5267,7 +5267,7 @@
         <v>78</v>
       </c>
       <c r="AD51">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE51">
         <v>8000</v>
@@ -5362,7 +5362,7 @@
         <v>78</v>
       </c>
       <c r="AD52">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE52">
         <v>8000</v>
@@ -5457,7 +5457,7 @@
         <v>78</v>
       </c>
       <c r="AD53">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE53">
         <v>8000</v>
@@ -5546,7 +5546,7 @@
         <v>78</v>
       </c>
       <c r="AD54">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE54">
         <v>8000</v>
@@ -5641,7 +5641,7 @@
         <v>78</v>
       </c>
       <c r="AD55">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE55">
         <v>8000</v>
@@ -5736,7 +5736,7 @@
         <v>78</v>
       </c>
       <c r="AD56">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE56">
         <v>8000</v>
@@ -5831,7 +5831,7 @@
         <v>78</v>
       </c>
       <c r="AD57">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE57">
         <v>8000</v>
@@ -5926,7 +5926,7 @@
         <v>78</v>
       </c>
       <c r="AD58">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE58">
         <v>8000</v>
@@ -6021,7 +6021,7 @@
         <v>78</v>
       </c>
       <c r="AD59">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE59">
         <v>8000</v>
@@ -6110,7 +6110,7 @@
         <v>78</v>
       </c>
       <c r="AD60">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE60">
         <v>8000</v>
@@ -6205,7 +6205,7 @@
         <v>78</v>
       </c>
       <c r="AD61">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE61">
         <v>8000</v>
@@ -6294,7 +6294,7 @@
         <v>78</v>
       </c>
       <c r="AD62">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE62">
         <v>8000</v>
@@ -6383,7 +6383,7 @@
         <v>78</v>
       </c>
       <c r="AD63">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE63">
         <v>8000</v>
@@ -6478,7 +6478,7 @@
         <v>78</v>
       </c>
       <c r="AD64">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE64">
         <v>8000</v>
@@ -6573,7 +6573,7 @@
         <v>78</v>
       </c>
       <c r="AD65">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE65">
         <v>8000</v>
